--- a/analysis/species_data/species_list_adding_1.xlsx
+++ b/analysis/species_data/species_list_adding_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\BBSsize\analysis\species_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ABCCB2-329B-41B1-92B4-4A76391CC916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918BE68-59EB-44E3-99A3-507B24D7E912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="240" windowWidth="15150" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13665" yWindow="135" windowWidth="15150" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8921" uniqueCount="2683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8921" uniqueCount="2682">
   <si>
     <t>species_id</t>
   </si>
@@ -7442,9 +7442,6 @@
   </si>
   <si>
     <t>close_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aphelocoma </t>
   </si>
   <si>
     <t>close_species_notes</t>
@@ -8911,10 +8908,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C872" sqref="C872"/>
+      <selection pane="bottomLeft" activeCell="S486" sqref="S486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8982,16 +8979,16 @@
         <v>2472</v>
       </c>
       <c r="R1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="S1" t="s">
         <v>2473</v>
       </c>
       <c r="T1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="U1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -24306,13 +24303,13 @@
         <v>1</v>
       </c>
       <c r="R388" t="s">
-        <v>2474</v>
+        <v>1603</v>
       </c>
       <c r="S388" t="s">
         <v>1059</v>
       </c>
       <c r="U388" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.25">
@@ -24347,13 +24344,13 @@
         <v>1</v>
       </c>
       <c r="R389" t="s">
-        <v>2474</v>
+        <v>1603</v>
       </c>
       <c r="S389" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="U389" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.25">
@@ -24382,7 +24379,7 @@
         <v>1603</v>
       </c>
       <c r="I390" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="J390">
         <v>132</v>
@@ -24423,7 +24420,7 @@
         <v>1603</v>
       </c>
       <c r="I391" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="J391">
         <v>129</v>
@@ -24464,7 +24461,7 @@
         <v>1603</v>
       </c>
       <c r="I392" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="J392">
         <v>102</v>
@@ -24505,7 +24502,7 @@
         <v>1603</v>
       </c>
       <c r="I393" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="J393">
         <v>95</v>
@@ -24880,7 +24877,7 @@
         <v>2325</v>
       </c>
       <c r="M402" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="N402" t="s">
         <v>2334</v>
@@ -24924,7 +24921,7 @@
         <v>2326</v>
       </c>
       <c r="M403" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="N403" t="s">
         <v>2334</v>
@@ -25278,7 +25275,7 @@
         <v>2325</v>
       </c>
       <c r="N412" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
@@ -25319,7 +25316,7 @@
         <v>2326</v>
       </c>
       <c r="N413" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
@@ -25506,7 +25503,7 @@
         <v>1677</v>
       </c>
       <c r="N418" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
@@ -25547,7 +25544,7 @@
         <v>1677</v>
       </c>
       <c r="N419" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
@@ -25585,10 +25582,10 @@
         <v>2325</v>
       </c>
       <c r="M420" t="s">
+        <v>2479</v>
+      </c>
+      <c r="N420" t="s">
         <v>2480</v>
-      </c>
-      <c r="N420" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
@@ -25626,10 +25623,10 @@
         <v>2326</v>
       </c>
       <c r="M421" t="s">
+        <v>2479</v>
+      </c>
+      <c r="N421" t="s">
         <v>2480</v>
-      </c>
-      <c r="N421" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25895,7 +25892,7 @@
         <v>1609</v>
       </c>
       <c r="N428" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
@@ -26015,7 +26012,7 @@
         <v>169</v>
       </c>
       <c r="N431" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
@@ -26091,7 +26088,7 @@
         <v>279</v>
       </c>
       <c r="N433" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.25">
@@ -26126,10 +26123,10 @@
         <v>17.8</v>
       </c>
       <c r="M434" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="N434" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
@@ -26167,7 +26164,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N435" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
@@ -26205,7 +26202,7 @@
         <v>2325</v>
       </c>
       <c r="N436" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
@@ -26243,7 +26240,7 @@
         <v>2326</v>
       </c>
       <c r="N437" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
@@ -26284,7 +26281,7 @@
         <v>2325</v>
       </c>
       <c r="N438" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
@@ -26325,7 +26322,7 @@
         <v>2326</v>
       </c>
       <c r="N439" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
@@ -26363,7 +26360,7 @@
         <v>181</v>
       </c>
       <c r="N440" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
@@ -26398,7 +26395,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="N441" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
@@ -26638,7 +26635,7 @@
         <v>1</v>
       </c>
       <c r="N447" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
@@ -26834,7 +26831,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.25">
@@ -26916,7 +26913,7 @@
         <v>1999</v>
       </c>
       <c r="N454" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.25">
@@ -26960,7 +26957,7 @@
         <v>1999</v>
       </c>
       <c r="N455" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.25">
@@ -27001,10 +26998,10 @@
         <v>2325</v>
       </c>
       <c r="M456" t="s">
+        <v>2492</v>
+      </c>
+      <c r="N456" t="s">
         <v>2493</v>
-      </c>
-      <c r="N456" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.25">
@@ -27045,10 +27042,10 @@
         <v>2326</v>
       </c>
       <c r="M457" t="s">
+        <v>2492</v>
+      </c>
+      <c r="N457" t="s">
         <v>2493</v>
-      </c>
-      <c r="N457" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.25">
@@ -27089,7 +27086,7 @@
         <v>2325</v>
       </c>
       <c r="M458" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="N458" t="s">
         <v>2334</v>
@@ -27133,7 +27130,7 @@
         <v>2326</v>
       </c>
       <c r="M459" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="N459" t="s">
         <v>2334</v>
@@ -27177,7 +27174,7 @@
         <v>2325</v>
       </c>
       <c r="M460" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="N460" t="s">
         <v>2335</v>
@@ -27221,7 +27218,7 @@
         <v>2326</v>
       </c>
       <c r="M461" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="N461" t="s">
         <v>2335</v>
@@ -27268,7 +27265,7 @@
         <v>1609</v>
       </c>
       <c r="N462" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.25">
@@ -27312,7 +27309,7 @@
         <v>1609</v>
       </c>
       <c r="N463" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.25">
@@ -27347,10 +27344,10 @@
         <v>15.3</v>
       </c>
       <c r="M464" t="s">
+        <v>2497</v>
+      </c>
+      <c r="N464" t="s">
         <v>2498</v>
-      </c>
-      <c r="N464" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
@@ -27464,7 +27461,7 @@
         <v>0.7</v>
       </c>
       <c r="N467" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
@@ -27759,10 +27756,10 @@
         <v>2325</v>
       </c>
       <c r="M475" t="s">
+        <v>2500</v>
+      </c>
+      <c r="N475" t="s">
         <v>2501</v>
-      </c>
-      <c r="N475" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
@@ -27800,10 +27797,10 @@
         <v>2326</v>
       </c>
       <c r="M476" t="s">
+        <v>2500</v>
+      </c>
+      <c r="N476" t="s">
         <v>2501</v>
-      </c>
-      <c r="N476" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
@@ -27841,10 +27838,10 @@
         <v>2325</v>
       </c>
       <c r="M477" t="s">
+        <v>2502</v>
+      </c>
+      <c r="N477" t="s">
         <v>2503</v>
-      </c>
-      <c r="N477" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.25">
@@ -27882,10 +27879,10 @@
         <v>2326</v>
       </c>
       <c r="M478" t="s">
+        <v>2502</v>
+      </c>
+      <c r="N478" t="s">
         <v>2503</v>
-      </c>
-      <c r="N478" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
@@ -27958,7 +27955,7 @@
         <v>11.3</v>
       </c>
       <c r="M480" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.25">
@@ -28116,10 +28113,10 @@
         <v>0.6</v>
       </c>
       <c r="M484" t="s">
+        <v>2505</v>
+      </c>
+      <c r="N484" t="s">
         <v>2506</v>
-      </c>
-      <c r="N484" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.25">
@@ -28195,10 +28192,10 @@
         <v>193</v>
       </c>
       <c r="S486" t="s">
+        <v>999</v>
+      </c>
+      <c r="U486" t="s">
         <v>2511</v>
-      </c>
-      <c r="U486" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.25">
@@ -28353,10 +28350,10 @@
         <v>12.2</v>
       </c>
       <c r="M490" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N490" t="s">
         <v>2513</v>
-      </c>
-      <c r="N490" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.25">
@@ -28394,10 +28391,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M491" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="N491" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.25">
@@ -28432,7 +28429,7 @@
         <v>9.9</v>
       </c>
       <c r="N492" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.25">
@@ -28470,7 +28467,7 @@
         <v>0.7</v>
       </c>
       <c r="N493" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="494" spans="1:21" x14ac:dyDescent="0.25">
@@ -28575,10 +28572,10 @@
         <v>11.8</v>
       </c>
       <c r="M496" t="s">
+        <v>2515</v>
+      </c>
+      <c r="N496" t="s">
         <v>2516</v>
-      </c>
-      <c r="N496" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
@@ -28856,7 +28853,7 @@
         <v>2325</v>
       </c>
       <c r="N503" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.25">
@@ -28897,7 +28894,7 @@
         <v>2326</v>
       </c>
       <c r="N504" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="505" spans="1:16" x14ac:dyDescent="0.25">
@@ -29008,13 +29005,13 @@
         <v>1.4</v>
       </c>
       <c r="N507" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="O507">
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.25">
@@ -29435,7 +29432,7 @@
         <v>0.8</v>
       </c>
       <c r="N518" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="519" spans="1:16" x14ac:dyDescent="0.25">
@@ -29561,7 +29558,7 @@
         <v>1</v>
       </c>
       <c r="P521" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.25">
@@ -29599,13 +29596,13 @@
         <v>1546</v>
       </c>
       <c r="N522" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="O522">
         <v>1</v>
       </c>
       <c r="P522" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="523" spans="1:16" x14ac:dyDescent="0.25">
@@ -29646,16 +29643,16 @@
         <v>2325</v>
       </c>
       <c r="M523" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N523" t="s">
         <v>2524</v>
-      </c>
-      <c r="N523" t="s">
-        <v>2525</v>
       </c>
       <c r="O523">
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.25">
@@ -29696,16 +29693,16 @@
         <v>2326</v>
       </c>
       <c r="M524" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N524" t="s">
         <v>2524</v>
-      </c>
-      <c r="N524" t="s">
-        <v>2525</v>
       </c>
       <c r="O524">
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.25">
@@ -29746,10 +29743,10 @@
         <v>2325</v>
       </c>
       <c r="M525" t="s">
+        <v>2526</v>
+      </c>
+      <c r="N525" t="s">
         <v>2527</v>
-      </c>
-      <c r="N525" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.25">
@@ -29790,10 +29787,10 @@
         <v>2326</v>
       </c>
       <c r="M526" t="s">
+        <v>2526</v>
+      </c>
+      <c r="N526" t="s">
         <v>2527</v>
-      </c>
-      <c r="N526" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="527" spans="1:16" x14ac:dyDescent="0.25">
@@ -29828,10 +29825,10 @@
         <v>30.6</v>
       </c>
       <c r="M527" t="s">
+        <v>2528</v>
+      </c>
+      <c r="N527" t="s">
         <v>2529</v>
-      </c>
-      <c r="N527" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.25">
@@ -30188,7 +30185,7 @@
         <v>2325</v>
       </c>
       <c r="N536" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
@@ -30229,7 +30226,7 @@
         <v>2326</v>
       </c>
       <c r="N537" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.25">
@@ -30346,7 +30343,7 @@
         <v>2325</v>
       </c>
       <c r="N540" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30387,7 +30384,7 @@
         <v>2326</v>
       </c>
       <c r="N541" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -30548,7 +30545,7 @@
         <v>2325</v>
       </c>
       <c r="M545" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.25">
@@ -30589,7 +30586,7 @@
         <v>2326</v>
       </c>
       <c r="M546" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -30709,7 +30706,7 @@
         <v>2325</v>
       </c>
       <c r="M549" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="N549" t="s">
         <v>2359</v>
@@ -30753,7 +30750,7 @@
         <v>2326</v>
       </c>
       <c r="M550" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="N550" t="s">
         <v>2359</v>
@@ -30829,7 +30826,7 @@
         <v>5.5</v>
       </c>
       <c r="M552" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="N552" t="s">
         <v>2331</v>
@@ -30870,7 +30867,7 @@
         <v>5.5</v>
       </c>
       <c r="M553" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="N553" t="s">
         <v>2331</v>
@@ -30984,7 +30981,7 @@
         <v>61.9</v>
       </c>
       <c r="N556" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -31247,7 +31244,7 @@
         <v>62.1</v>
       </c>
       <c r="M563" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.25">
@@ -31288,7 +31285,7 @@
         <v>2325</v>
       </c>
       <c r="N564" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
@@ -31329,7 +31326,7 @@
         <v>2326</v>
       </c>
       <c r="N565" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.25">
@@ -31370,7 +31367,7 @@
         <v>2325</v>
       </c>
       <c r="N566" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.25">
@@ -31411,7 +31408,7 @@
         <v>2326</v>
       </c>
       <c r="N567" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.25">
@@ -31674,7 +31671,7 @@
         <v>0.6</v>
       </c>
       <c r="N574" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.25">
@@ -31791,10 +31788,10 @@
         <v>24.3</v>
       </c>
       <c r="M577" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="N577" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.25">
@@ -31832,7 +31829,7 @@
         <v>1.2</v>
       </c>
       <c r="N578" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.25">
@@ -31867,7 +31864,7 @@
         <v>20.8</v>
       </c>
       <c r="N579" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.25">
@@ -31905,7 +31902,7 @@
         <v>2325</v>
       </c>
       <c r="N580" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.25">
@@ -31943,7 +31940,7 @@
         <v>2326</v>
       </c>
       <c r="N581" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.25">
@@ -31984,7 +31981,7 @@
         <v>1540</v>
       </c>
       <c r="N582" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.25">
@@ -32019,10 +32016,10 @@
         <v>24.4</v>
       </c>
       <c r="M583" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="N583" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.25">
@@ -32057,10 +32054,10 @@
         <v>23.6</v>
       </c>
       <c r="M584" t="s">
+        <v>2543</v>
+      </c>
+      <c r="N584" t="s">
         <v>2544</v>
-      </c>
-      <c r="N584" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.25">
@@ -32098,10 +32095,10 @@
         <v>1.7</v>
       </c>
       <c r="M585" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="N585" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.25">
@@ -32136,10 +32133,10 @@
         <v>27.9</v>
       </c>
       <c r="M586" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="N586" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.25">
@@ -32174,7 +32171,7 @@
         <v>20.9</v>
       </c>
       <c r="N587" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.25">
@@ -32291,10 +32288,10 @@
         <v>2325</v>
       </c>
       <c r="M590" t="s">
+        <v>2548</v>
+      </c>
+      <c r="N590" t="s">
         <v>2549</v>
-      </c>
-      <c r="N590" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.25">
@@ -32335,10 +32332,10 @@
         <v>2326</v>
       </c>
       <c r="M591" t="s">
+        <v>2548</v>
+      </c>
+      <c r="N591" t="s">
         <v>2549</v>
-      </c>
-      <c r="N591" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.25">
@@ -32499,7 +32496,7 @@
         <v>2325</v>
       </c>
       <c r="N595" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="596" spans="1:16" x14ac:dyDescent="0.25">
@@ -32540,7 +32537,7 @@
         <v>2326</v>
       </c>
       <c r="N596" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.25">
@@ -32578,7 +32575,7 @@
         <v>3.2</v>
       </c>
       <c r="N597" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="598" spans="1:16" x14ac:dyDescent="0.25">
@@ -32619,10 +32616,10 @@
         <v>2325</v>
       </c>
       <c r="M598" t="s">
+        <v>2551</v>
+      </c>
+      <c r="N598" t="s">
         <v>2552</v>
-      </c>
-      <c r="N598" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="599" spans="1:16" x14ac:dyDescent="0.25">
@@ -32663,10 +32660,10 @@
         <v>2326</v>
       </c>
       <c r="M599" t="s">
+        <v>2551</v>
+      </c>
+      <c r="N599" t="s">
         <v>2552</v>
-      </c>
-      <c r="N599" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.25">
@@ -32704,7 +32701,7 @@
         <v>1</v>
       </c>
       <c r="M600" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="N600" t="s">
         <v>2334</v>
@@ -32827,7 +32824,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="604" spans="1:16" x14ac:dyDescent="0.25">
@@ -32868,7 +32865,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.25">
@@ -32912,7 +32909,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.25">
@@ -32953,7 +32950,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.25">
@@ -32988,7 +32985,7 @@
         <v>12.7</v>
       </c>
       <c r="M607" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="N607" t="s">
         <v>2342</v>
@@ -32997,7 +32994,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.25">
@@ -33035,13 +33032,13 @@
         <v>1217</v>
       </c>
       <c r="N608" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="O608">
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="609" spans="1:16" x14ac:dyDescent="0.25">
@@ -33114,7 +33111,7 @@
         <v>40.6</v>
       </c>
       <c r="N610" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="611" spans="1:16" x14ac:dyDescent="0.25">
@@ -33149,7 +33146,7 @@
         <v>38</v>
       </c>
       <c r="M611" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N611" t="s">
         <v>2336</v>
@@ -33278,7 +33275,7 @@
         <v>2325</v>
       </c>
       <c r="M614" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="615" spans="1:16" x14ac:dyDescent="0.25">
@@ -33316,7 +33313,7 @@
         <v>2326</v>
       </c>
       <c r="M615" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="616" spans="1:16" x14ac:dyDescent="0.25">
@@ -33351,7 +33348,7 @@
         <v>16</v>
       </c>
       <c r="N616" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="617" spans="1:16" x14ac:dyDescent="0.25">
@@ -33392,7 +33389,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="618" spans="1:16" x14ac:dyDescent="0.25">
@@ -33433,7 +33430,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="619" spans="1:16" x14ac:dyDescent="0.25">
@@ -33468,7 +33465,7 @@
         <v>8.1</v>
       </c>
       <c r="M619" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="N619" t="s">
         <v>2355</v>
@@ -33477,7 +33474,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="620" spans="1:16" x14ac:dyDescent="0.25">
@@ -33524,7 +33521,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="621" spans="1:16" x14ac:dyDescent="0.25">
@@ -33571,7 +33568,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="622" spans="1:16" x14ac:dyDescent="0.25">
@@ -33618,7 +33615,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="623" spans="1:16" x14ac:dyDescent="0.25">
@@ -33665,7 +33662,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="624" spans="1:16" x14ac:dyDescent="0.25">
@@ -33706,7 +33703,7 @@
         <v>2325</v>
       </c>
       <c r="N624" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.25">
@@ -33747,7 +33744,7 @@
         <v>2326</v>
       </c>
       <c r="N625" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
@@ -33782,7 +33779,7 @@
         <v>20.3</v>
       </c>
       <c r="N626" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.25">
@@ -33820,7 +33817,7 @@
         <v>2325</v>
       </c>
       <c r="N627" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.25">
@@ -33858,7 +33855,7 @@
         <v>2326</v>
       </c>
       <c r="N628" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.25">
@@ -33896,7 +33893,7 @@
         <v>2325</v>
       </c>
       <c r="N629" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.25">
@@ -33934,7 +33931,7 @@
         <v>2326</v>
       </c>
       <c r="N630" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.25">
@@ -34013,7 +34010,7 @@
         <v>2325</v>
       </c>
       <c r="N632" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
@@ -34054,7 +34051,7 @@
         <v>2326</v>
       </c>
       <c r="N633" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
@@ -34171,7 +34168,7 @@
         <v>2325</v>
       </c>
       <c r="M636" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="N636" t="s">
         <v>2334</v>
@@ -34215,7 +34212,7 @@
         <v>2326</v>
       </c>
       <c r="M637" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="N637" t="s">
         <v>2334</v>
@@ -34420,7 +34417,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="643" spans="1:16" x14ac:dyDescent="0.25">
@@ -34467,7 +34464,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="644" spans="1:16" x14ac:dyDescent="0.25">
@@ -34514,7 +34511,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="645" spans="1:16" x14ac:dyDescent="0.25">
@@ -34561,7 +34558,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="646" spans="1:16" x14ac:dyDescent="0.25">
@@ -34608,7 +34605,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="647" spans="1:16" x14ac:dyDescent="0.25">
@@ -34652,7 +34649,7 @@
         <v>1</v>
       </c>
       <c r="P647" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="648" spans="1:16" x14ac:dyDescent="0.25">
@@ -34696,7 +34693,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="649" spans="1:16" x14ac:dyDescent="0.25">
@@ -34740,7 +34737,7 @@
         <v>1</v>
       </c>
       <c r="P649" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="650" spans="1:16" x14ac:dyDescent="0.25">
@@ -34778,13 +34775,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N650" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="O650">
         <v>1</v>
       </c>
       <c r="P650" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="651" spans="1:16" x14ac:dyDescent="0.25">
@@ -34822,13 +34819,13 @@
         <v>5.2</v>
       </c>
       <c r="N651" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="O651">
         <v>1</v>
       </c>
       <c r="P651" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="652" spans="1:16" x14ac:dyDescent="0.25">
@@ -34875,7 +34872,7 @@
         <v>1</v>
       </c>
       <c r="P652" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="653" spans="1:16" x14ac:dyDescent="0.25">
@@ -34922,7 +34919,7 @@
         <v>1</v>
       </c>
       <c r="P653" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="654" spans="1:16" x14ac:dyDescent="0.25">
@@ -34998,7 +34995,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N655" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="656" spans="1:16" x14ac:dyDescent="0.25">
@@ -35147,7 +35144,7 @@
         <v>2325</v>
       </c>
       <c r="N659" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="660" spans="1:21" x14ac:dyDescent="0.25">
@@ -35185,7 +35182,7 @@
         <v>2326</v>
       </c>
       <c r="N660" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="661" spans="1:21" x14ac:dyDescent="0.25">
@@ -35305,7 +35302,7 @@
         <v>1642</v>
       </c>
       <c r="U663" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="664" spans="1:21" x14ac:dyDescent="0.25">
@@ -35437,7 +35434,7 @@
         <v>2049</v>
       </c>
       <c r="U666" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="667" spans="1:21" x14ac:dyDescent="0.25">
@@ -35554,7 +35551,7 @@
         <v>2325</v>
       </c>
       <c r="N669" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="670" spans="1:21" x14ac:dyDescent="0.25">
@@ -35595,7 +35592,7 @@
         <v>2326</v>
       </c>
       <c r="N670" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="671" spans="1:21" x14ac:dyDescent="0.25">
@@ -35636,10 +35633,10 @@
         <v>2325</v>
       </c>
       <c r="M671" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="N671" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="672" spans="1:21" x14ac:dyDescent="0.25">
@@ -35680,10 +35677,10 @@
         <v>2326</v>
       </c>
       <c r="M672" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="N672" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="673" spans="1:16" x14ac:dyDescent="0.25">
@@ -35756,10 +35753,10 @@
         <v>26</v>
       </c>
       <c r="M674" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N674" t="s">
         <v>2592</v>
-      </c>
-      <c r="N674" t="s">
-        <v>2593</v>
       </c>
     </row>
     <row r="675" spans="1:16" x14ac:dyDescent="0.25">
@@ -35797,10 +35794,10 @@
         <v>0.8</v>
       </c>
       <c r="M675" t="s">
+        <v>2593</v>
+      </c>
+      <c r="N675" t="s">
         <v>2594</v>
-      </c>
-      <c r="N675" t="s">
-        <v>2595</v>
       </c>
     </row>
     <row r="676" spans="1:16" x14ac:dyDescent="0.25">
@@ -35920,7 +35917,7 @@
         <v>2325</v>
       </c>
       <c r="M678" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="N678" t="s">
         <v>2353</v>
@@ -35961,7 +35958,7 @@
         <v>2326</v>
       </c>
       <c r="M679" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="N679" t="s">
         <v>2353</v>
@@ -35999,7 +35996,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="M680" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="N680" t="s">
         <v>2448</v>
@@ -36046,7 +36043,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="682" spans="1:16" x14ac:dyDescent="0.25">
@@ -36090,7 +36087,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="683" spans="1:16" x14ac:dyDescent="0.25">
@@ -36134,7 +36131,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="684" spans="1:16" x14ac:dyDescent="0.25">
@@ -36172,7 +36169,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="685" spans="1:16" x14ac:dyDescent="0.25">
@@ -36210,13 +36207,13 @@
         <v>1.2</v>
       </c>
       <c r="N685" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="O685">
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="686" spans="1:16" x14ac:dyDescent="0.25">
@@ -36257,7 +36254,7 @@
         <v>2325</v>
       </c>
       <c r="M686" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="N686" t="s">
         <v>2352</v>
@@ -36266,7 +36263,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="687" spans="1:16" x14ac:dyDescent="0.25">
@@ -36307,7 +36304,7 @@
         <v>2326</v>
       </c>
       <c r="M687" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="N687" t="s">
         <v>2352</v>
@@ -36316,7 +36313,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="688" spans="1:16" x14ac:dyDescent="0.25">
@@ -36357,7 +36354,7 @@
         <v>2325</v>
       </c>
       <c r="M688" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="N688" t="s">
         <v>2353</v>
@@ -36366,7 +36363,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="689" spans="1:16" x14ac:dyDescent="0.25">
@@ -36407,7 +36404,7 @@
         <v>2326</v>
       </c>
       <c r="M689" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="N689" t="s">
         <v>2353</v>
@@ -36416,7 +36413,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="690" spans="1:16" x14ac:dyDescent="0.25">
@@ -36457,13 +36454,13 @@
         <v>2325</v>
       </c>
       <c r="N690" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="O690">
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="691" spans="1:16" x14ac:dyDescent="0.25">
@@ -36501,13 +36498,13 @@
         <v>2326</v>
       </c>
       <c r="N691" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="O691">
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="692" spans="1:16" x14ac:dyDescent="0.25">
@@ -36548,7 +36545,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="693" spans="1:16" x14ac:dyDescent="0.25">
@@ -36592,7 +36589,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="694" spans="1:16" x14ac:dyDescent="0.25">
@@ -36636,7 +36633,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="695" spans="1:16" x14ac:dyDescent="0.25">
@@ -36747,7 +36744,7 @@
         <v>36.1</v>
       </c>
       <c r="M697" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="698" spans="1:16" x14ac:dyDescent="0.25">
@@ -36782,7 +36779,7 @@
         <v>30.4</v>
       </c>
       <c r="M698" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="699" spans="1:16" x14ac:dyDescent="0.25">
@@ -36817,7 +36814,7 @@
         <v>32.5</v>
       </c>
       <c r="M699" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="700" spans="1:16" x14ac:dyDescent="0.25">
@@ -36934,7 +36931,7 @@
         <v>42.4</v>
       </c>
       <c r="M702" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="N702" t="s">
         <v>2342</v>
@@ -36975,7 +36972,7 @@
         <v>0.9</v>
       </c>
       <c r="M703" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="N703" t="s">
         <v>2334</v>
@@ -37016,7 +37013,7 @@
         <v>0.9</v>
       </c>
       <c r="M704" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="N704" t="s">
         <v>2334</v>
@@ -37057,7 +37054,7 @@
         <v>0.8</v>
       </c>
       <c r="M705" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="N705" t="s">
         <v>2334</v>
@@ -37098,7 +37095,7 @@
         <v>1.2</v>
       </c>
       <c r="M706" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="N706" t="s">
         <v>2334</v>
@@ -37133,13 +37130,13 @@
         <v>326</v>
       </c>
       <c r="J707" t="s">
+        <v>2615</v>
+      </c>
+      <c r="M707" t="s">
         <v>2616</v>
       </c>
-      <c r="M707" t="s">
+      <c r="N707" t="s">
         <v>2617</v>
-      </c>
-      <c r="N707" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.25">
@@ -37496,7 +37493,7 @@
         <v>1.8</v>
       </c>
       <c r="M716" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="N716" t="s">
         <v>2334</v>
@@ -37537,7 +37534,7 @@
         <v>1.9</v>
       </c>
       <c r="M717" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="N717" t="s">
         <v>2420</v>
@@ -37745,7 +37742,7 @@
         <v>2325</v>
       </c>
       <c r="M722" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="N722" t="s">
         <v>2372</v>
@@ -37789,7 +37786,7 @@
         <v>2326</v>
       </c>
       <c r="M723" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="N723" t="s">
         <v>2372</v>
@@ -37950,7 +37947,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M727" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="N727" t="s">
         <v>2359</v>
@@ -37988,7 +37985,7 @@
         <v>22</v>
       </c>
       <c r="M728" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.25">
@@ -38383,7 +38380,7 @@
         <v>2325</v>
       </c>
       <c r="M738" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.25">
@@ -38421,7 +38418,7 @@
         <v>2326</v>
       </c>
       <c r="M739" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.25">
@@ -38459,7 +38456,7 @@
         <v>2325</v>
       </c>
       <c r="M740" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="N740" t="s">
         <v>2375</v>
@@ -38500,7 +38497,7 @@
         <v>2326</v>
       </c>
       <c r="M741" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="N741" t="s">
         <v>2375</v>
@@ -38541,7 +38538,7 @@
         <v>2325</v>
       </c>
       <c r="N742" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.25">
@@ -38579,7 +38576,7 @@
         <v>2326</v>
       </c>
       <c r="N743" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.25">
@@ -38614,7 +38611,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="N744" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
@@ -38649,7 +38646,7 @@
         <v>19</v>
       </c>
       <c r="M745" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="N745" t="s">
         <v>2375</v>
@@ -38760,7 +38757,7 @@
         <v>46.5</v>
       </c>
       <c r="N748" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
@@ -38801,7 +38798,7 @@
         <v>2237</v>
       </c>
       <c r="N749" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.25">
@@ -38842,7 +38839,7 @@
         <v>2237</v>
       </c>
       <c r="N750" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.25">
@@ -39621,7 +39618,7 @@
         <v>2325</v>
       </c>
       <c r="M769" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="N769" t="s">
         <v>2334</v>
@@ -39665,7 +39662,7 @@
         <v>2326</v>
       </c>
       <c r="M770" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="N770" t="s">
         <v>2334</v>
@@ -40043,7 +40040,7 @@
         <v>2325</v>
       </c>
       <c r="N779" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.25">
@@ -40084,7 +40081,7 @@
         <v>2326</v>
       </c>
       <c r="N780" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.25">
@@ -40321,7 +40318,7 @@
         <v>1</v>
       </c>
       <c r="P786" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="787" spans="1:21" x14ac:dyDescent="0.25">
@@ -40365,7 +40362,7 @@
         <v>1</v>
       </c>
       <c r="P787" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="788" spans="1:21" x14ac:dyDescent="0.25">
@@ -40488,7 +40485,7 @@
         <v>464</v>
       </c>
       <c r="U790" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="791" spans="1:21" x14ac:dyDescent="0.25">
@@ -40523,7 +40520,7 @@
         <v>8.9</v>
       </c>
       <c r="N791" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="792" spans="1:21" x14ac:dyDescent="0.25">
@@ -40596,7 +40593,7 @@
         <v>0.1</v>
       </c>
       <c r="N793" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="794" spans="1:21" x14ac:dyDescent="0.25">
@@ -40678,7 +40675,7 @@
         <v>1</v>
       </c>
       <c r="P795" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="796" spans="1:21" x14ac:dyDescent="0.25">
@@ -40722,7 +40719,7 @@
         <v>1</v>
       </c>
       <c r="P796" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="797" spans="1:21" x14ac:dyDescent="0.25">
@@ -40760,16 +40757,16 @@
         <v>0.8</v>
       </c>
       <c r="M797" t="s">
+        <v>2634</v>
+      </c>
+      <c r="N797" t="s">
         <v>2635</v>
-      </c>
-      <c r="N797" t="s">
-        <v>2636</v>
       </c>
       <c r="O797">
         <v>1</v>
       </c>
       <c r="P797" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="798" spans="1:21" x14ac:dyDescent="0.25">
@@ -40813,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="P798" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="799" spans="1:21" x14ac:dyDescent="0.25">
@@ -40860,7 +40857,7 @@
         <v>1</v>
       </c>
       <c r="P799" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="800" spans="1:21" x14ac:dyDescent="0.25">
@@ -40907,7 +40904,7 @@
         <v>1</v>
       </c>
       <c r="P800" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="801" spans="1:16" x14ac:dyDescent="0.25">
@@ -40948,7 +40945,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="802" spans="1:16" x14ac:dyDescent="0.25">
@@ -41027,7 +41024,7 @@
         <v>1</v>
       </c>
       <c r="P803" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="804" spans="1:16" x14ac:dyDescent="0.25">
@@ -41074,7 +41071,7 @@
         <v>1</v>
       </c>
       <c r="P804" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="805" spans="1:16" x14ac:dyDescent="0.25">
@@ -41121,7 +41118,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="806" spans="1:16" x14ac:dyDescent="0.25">
@@ -41162,7 +41159,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="807" spans="1:16" x14ac:dyDescent="0.25">
@@ -41329,7 +41326,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="811" spans="1:16" x14ac:dyDescent="0.25">
@@ -41376,7 +41373,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="812" spans="1:16" x14ac:dyDescent="0.25">
@@ -41499,13 +41496,13 @@
         <v>2325</v>
       </c>
       <c r="N814" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="O814">
         <v>1</v>
       </c>
       <c r="P814" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="815" spans="1:16" x14ac:dyDescent="0.25">
@@ -41546,13 +41543,13 @@
         <v>2326</v>
       </c>
       <c r="N815" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="O815">
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="816" spans="1:16" x14ac:dyDescent="0.25">
@@ -41599,7 +41596,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="817" spans="1:16" x14ac:dyDescent="0.25">
@@ -41646,7 +41643,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="818" spans="1:16" x14ac:dyDescent="0.25">
@@ -41693,7 +41690,7 @@
         <v>1</v>
       </c>
       <c r="P818" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="819" spans="1:16" x14ac:dyDescent="0.25">
@@ -41740,7 +41737,7 @@
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="820" spans="1:16" x14ac:dyDescent="0.25">
@@ -41781,7 +41778,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="821" spans="1:16" x14ac:dyDescent="0.25">
@@ -41828,7 +41825,7 @@
         <v>1</v>
       </c>
       <c r="P821" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="822" spans="1:16" x14ac:dyDescent="0.25">
@@ -41875,7 +41872,7 @@
         <v>1</v>
       </c>
       <c r="P822" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="823" spans="1:16" x14ac:dyDescent="0.25">
@@ -41922,7 +41919,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="824" spans="1:16" x14ac:dyDescent="0.25">
@@ -41966,7 +41963,7 @@
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="825" spans="1:16" x14ac:dyDescent="0.25">
@@ -42001,7 +41998,7 @@
         <v>6.7</v>
       </c>
       <c r="M825" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="N825" t="s">
         <v>2355</v>
@@ -42010,7 +42007,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="826" spans="1:16" x14ac:dyDescent="0.25">
@@ -42057,7 +42054,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="827" spans="1:16" x14ac:dyDescent="0.25">
@@ -42104,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="P827" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="828" spans="1:16" x14ac:dyDescent="0.25">
@@ -42145,7 +42142,7 @@
         <v>1</v>
       </c>
       <c r="P828" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="829" spans="1:16" x14ac:dyDescent="0.25">
@@ -42186,7 +42183,7 @@
         <v>1</v>
       </c>
       <c r="P829" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="830" spans="1:16" x14ac:dyDescent="0.25">
@@ -42227,7 +42224,7 @@
         <v>1</v>
       </c>
       <c r="P830" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="831" spans="1:16" x14ac:dyDescent="0.25">
@@ -42274,7 +42271,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="832" spans="1:16" x14ac:dyDescent="0.25">
@@ -42321,7 +42318,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="833" spans="1:16" x14ac:dyDescent="0.25">
@@ -42362,7 +42359,7 @@
         <v>2325</v>
       </c>
       <c r="M833" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="N833" t="s">
         <v>2360</v>
@@ -42371,7 +42368,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="834" spans="1:16" x14ac:dyDescent="0.25">
@@ -42409,7 +42406,7 @@
         <v>2326</v>
       </c>
       <c r="M834" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="N834" t="s">
         <v>2360</v>
@@ -42418,7 +42415,7 @@
         <v>1</v>
       </c>
       <c r="P834" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="835" spans="1:16" x14ac:dyDescent="0.25">
@@ -42456,13 +42453,13 @@
         <v>0.8</v>
       </c>
       <c r="N835" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="O835">
         <v>1</v>
       </c>
       <c r="P835" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="836" spans="1:16" x14ac:dyDescent="0.25">
@@ -42497,7 +42494,7 @@
         <v>10</v>
       </c>
       <c r="M836" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="N836" t="s">
         <v>2374</v>
@@ -42506,7 +42503,7 @@
         <v>1</v>
       </c>
       <c r="P836" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="837" spans="1:16" x14ac:dyDescent="0.25">
@@ -42553,7 +42550,7 @@
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="838" spans="1:16" x14ac:dyDescent="0.25">
@@ -42600,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="P838" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="839" spans="1:16" x14ac:dyDescent="0.25">
@@ -42647,7 +42644,7 @@
         <v>1</v>
       </c>
       <c r="P839" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="840" spans="1:16" x14ac:dyDescent="0.25">
@@ -42694,7 +42691,7 @@
         <v>1</v>
       </c>
       <c r="P840" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="841" spans="1:16" x14ac:dyDescent="0.25">
@@ -42738,7 +42735,7 @@
         <v>1</v>
       </c>
       <c r="P841" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="842" spans="1:16" x14ac:dyDescent="0.25">
@@ -42782,7 +42779,7 @@
         <v>1</v>
       </c>
       <c r="P842" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="843" spans="1:16" x14ac:dyDescent="0.25">
@@ -42826,7 +42823,7 @@
         <v>1</v>
       </c>
       <c r="P843" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="844" spans="1:16" x14ac:dyDescent="0.25">
@@ -42864,13 +42861,13 @@
         <v>1.2</v>
       </c>
       <c r="N844" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="O844">
         <v>1</v>
       </c>
       <c r="P844" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="845" spans="1:16" x14ac:dyDescent="0.25">
@@ -42914,7 +42911,7 @@
         <v>1</v>
       </c>
       <c r="P845" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="846" spans="1:16" x14ac:dyDescent="0.25">
@@ -42958,7 +42955,7 @@
         <v>1</v>
       </c>
       <c r="P846" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="847" spans="1:16" x14ac:dyDescent="0.25">
@@ -43005,7 +43002,7 @@
         <v>1</v>
       </c>
       <c r="P847" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="848" spans="1:16" x14ac:dyDescent="0.25">
@@ -43052,7 +43049,7 @@
         <v>1</v>
       </c>
       <c r="P848" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="849" spans="1:16" x14ac:dyDescent="0.25">
@@ -43093,7 +43090,7 @@
         <v>2325</v>
       </c>
       <c r="M849" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="N849" t="s">
         <v>2334</v>
@@ -43102,7 +43099,7 @@
         <v>1</v>
       </c>
       <c r="P849" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="850" spans="1:16" x14ac:dyDescent="0.25">
@@ -43143,7 +43140,7 @@
         <v>2326</v>
       </c>
       <c r="M850" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="N850" t="s">
         <v>2334</v>
@@ -43152,7 +43149,7 @@
         <v>1</v>
       </c>
       <c r="P850" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="851" spans="1:16" x14ac:dyDescent="0.25">
@@ -43196,7 +43193,7 @@
         <v>1</v>
       </c>
       <c r="P851" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="852" spans="1:16" x14ac:dyDescent="0.25">
@@ -43240,7 +43237,7 @@
         <v>1</v>
       </c>
       <c r="P852" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="853" spans="1:16" x14ac:dyDescent="0.25">
@@ -43287,7 +43284,7 @@
         <v>1</v>
       </c>
       <c r="P853" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="854" spans="1:16" x14ac:dyDescent="0.25">
@@ -43334,7 +43331,7 @@
         <v>1</v>
       </c>
       <c r="P854" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="855" spans="1:16" x14ac:dyDescent="0.25">
@@ -43375,7 +43372,7 @@
         <v>1</v>
       </c>
       <c r="P855" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="856" spans="1:16" x14ac:dyDescent="0.25">
@@ -43413,13 +43410,13 @@
         <v>0.6</v>
       </c>
       <c r="N856" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="O856">
         <v>1</v>
       </c>
       <c r="P856" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="857" spans="1:16" x14ac:dyDescent="0.25">
@@ -43466,7 +43463,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="858" spans="1:16" x14ac:dyDescent="0.25">
@@ -43513,7 +43510,7 @@
         <v>1</v>
       </c>
       <c r="P858" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="859" spans="1:16" x14ac:dyDescent="0.25">
@@ -43554,7 +43551,7 @@
         <v>1</v>
       </c>
       <c r="P859" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="860" spans="1:16" x14ac:dyDescent="0.25">
@@ -43595,7 +43592,7 @@
         <v>1</v>
       </c>
       <c r="P860" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="861" spans="1:16" x14ac:dyDescent="0.25">
@@ -43642,7 +43639,7 @@
         <v>1</v>
       </c>
       <c r="P861" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="862" spans="1:16" x14ac:dyDescent="0.25">
@@ -43689,7 +43686,7 @@
         <v>1</v>
       </c>
       <c r="P862" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="863" spans="1:16" x14ac:dyDescent="0.25">
@@ -43736,7 +43733,7 @@
         <v>1</v>
       </c>
       <c r="P863" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="864" spans="1:16" x14ac:dyDescent="0.25">
@@ -43783,7 +43780,7 @@
         <v>1</v>
       </c>
       <c r="P864" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="865" spans="1:16" x14ac:dyDescent="0.25">
@@ -43827,7 +43824,7 @@
         <v>1</v>
       </c>
       <c r="P865" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="866" spans="1:16" x14ac:dyDescent="0.25">
@@ -43874,7 +43871,7 @@
         <v>1</v>
       </c>
       <c r="P866" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="867" spans="1:16" x14ac:dyDescent="0.25">
@@ -43921,7 +43918,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="868" spans="1:16" x14ac:dyDescent="0.25">
@@ -44108,7 +44105,7 @@
         <v>3.2</v>
       </c>
       <c r="N872" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="873" spans="1:16" x14ac:dyDescent="0.25">
@@ -44415,7 +44412,7 @@
         <v>42</v>
       </c>
       <c r="N880" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.25">
@@ -44456,7 +44453,7 @@
         <v>2325</v>
       </c>
       <c r="N881" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.25">
@@ -44497,7 +44494,7 @@
         <v>2326</v>
       </c>
       <c r="N882" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.25">
@@ -44690,7 +44687,7 @@
         <v>2325</v>
       </c>
       <c r="N887" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.25">
@@ -44731,7 +44728,7 @@
         <v>2326</v>
       </c>
       <c r="N888" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.25">
